--- a/captax/data/outputs/Current-Law/uniformity/supplemental_table_tax_wedges_Current-Law_uniformity.xlsx
+++ b/captax/data/outputs/Current-Law/uniformity/supplemental_table_tax_wedges_Current-Law_uniformity.xlsx
@@ -521,37 +521,37 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C9" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D9" s="5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E9" s="5">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F9" s="5">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G9" s="5">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="H9" s="5">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="I9" s="5">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="J9" s="5">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K9" s="5">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="L9" s="5">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -573,37 +573,37 @@
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
       <c r="C11" s="1">
-        <v>0.85</v>
+        <v>1.02</v>
       </c>
       <c r="D11" s="1">
-        <v>0.89</v>
+        <v>1.07</v>
       </c>
       <c r="E11" s="1">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="F11" s="1">
-        <v>0.99</v>
+        <v>1.23</v>
       </c>
       <c r="G11" s="1">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="H11" s="1">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="I11" s="1">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="J11" s="1">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="K11" s="1">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="L11" s="1">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -616,37 +616,37 @@
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C14" s="1">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="D14" s="1">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="E14" s="1">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="F14" s="1">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="G14" s="1">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="H14" s="1">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="I14" s="1">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="J14" s="1">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="K14" s="1">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="L14" s="1">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -654,37 +654,37 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
       <c r="C15" s="1">
-        <v>0.39</v>
+        <v>0.55</v>
       </c>
       <c r="D15" s="1">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
       <c r="E15" s="1">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="F15" s="1">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="G15" s="1">
-        <v>0.55</v>
+        <v>0.67</v>
       </c>
       <c r="H15" s="1">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="I15" s="1">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="J15" s="1">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K15" s="1">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="L15" s="1">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="3.75" customHeight="1">
@@ -727,37 +727,37 @@
         <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="C17" s="1">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="E17" s="1">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="F17" s="1">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="G17" s="1">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="H17" s="1">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="I17" s="1">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="J17" s="1">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="K17" s="1">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="L17" s="1">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -770,37 +770,37 @@
         <v>9</v>
       </c>
       <c r="B20" s="1">
-        <v>0.87</v>
+        <v>1.08</v>
       </c>
       <c r="C20" s="1">
-        <v>0.96</v>
+        <v>1.12</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="E20" s="1">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="F20" s="1">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="G20" s="1">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="H20" s="1">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="I20" s="1">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="J20" s="1">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="K20" s="1">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="L20" s="1">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -808,37 +808,37 @@
         <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>0.54</v>
+        <v>0.79</v>
       </c>
       <c r="C21" s="1">
-        <v>0.65</v>
+        <v>0.84</v>
       </c>
       <c r="D21" s="1">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="E21" s="1">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F21" s="1">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="G21" s="1">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="H21" s="1">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="I21" s="1">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="J21" s="1">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="K21" s="1">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="L21" s="1">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="3.75" customHeight="1">
@@ -881,37 +881,37 @@
         <v>11</v>
       </c>
       <c r="B23" s="1">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="C23" s="1">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="D23" s="1">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="E23" s="1">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="F23" s="1">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
       <c r="G23" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="H23" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I23" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="J23" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="K23" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="L23" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -919,37 +919,37 @@
         <v>12</v>
       </c>
       <c r="B25" s="1">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="C25" s="1">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="E25" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="F25" s="1">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="G25" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="H25" s="1">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="I25" s="1">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="J25" s="1">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="K25" s="1">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="L25" s="1">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -957,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B26" s="1">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="C26" s="1">
         <v>0.05</v>
       </c>
       <c r="D26" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E26" s="1">
         <v>0.04</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B28" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C28" s="1">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="D28" s="1">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="E28" s="1">
-        <v>0.07000000000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="F28" s="1">
-        <v>0.04</v>
+        <v>-0.5</v>
       </c>
       <c r="G28" s="1">
-        <v>-0.48</v>
+        <v>-0.5</v>
       </c>
       <c r="H28" s="1">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="I28" s="1">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="J28" s="1">
         <v>-0.5</v>
@@ -1025,7 +1025,7 @@
         <v>-0.5</v>
       </c>
       <c r="L28" s="1">
-        <v>-0.5</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B29" s="1">
-        <v>-0.6899999999999999</v>
+        <v>-0.93</v>
       </c>
       <c r="C29" s="1">
-        <v>-0.77</v>
+        <v>-0.97</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.8100000000000001</v>
+        <v>-1.05</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.87</v>
+        <v>-1.13</v>
       </c>
       <c r="F29" s="1">
-        <v>-0.95</v>
+        <v>-1.72</v>
       </c>
       <c r="G29" s="1">
-        <v>-1.59</v>
+        <v>-1.78</v>
       </c>
       <c r="H29" s="1">
-        <v>-1.64</v>
+        <v>-1.78</v>
       </c>
       <c r="I29" s="1">
-        <v>-1.65</v>
+        <v>-1.78</v>
       </c>
       <c r="J29" s="1">
-        <v>-1.67</v>
+        <v>-1.79</v>
       </c>
       <c r="K29" s="1">
-        <v>-1.67</v>
+        <v>-1.79</v>
       </c>
       <c r="L29" s="1">
-        <v>-1.68</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1088,25 +1088,25 @@
         <v>-0.02</v>
       </c>
       <c r="F32" s="1">
-        <v>-0.02</v>
+        <v>-0.25</v>
       </c>
       <c r="G32" s="1">
         <v>-0.25</v>
       </c>
       <c r="H32" s="1">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="I32" s="1">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="J32" s="1">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="K32" s="1">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="L32" s="1">
-        <v>-0.26</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1114,37 +1114,37 @@
         <v>6</v>
       </c>
       <c r="B33" s="1">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="C33" s="1">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="D33" s="1">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="E33" s="1">
-        <v>0.21</v>
+        <v>-0.02</v>
       </c>
       <c r="F33" s="1">
-        <v>0.14</v>
+        <v>-0.93</v>
       </c>
       <c r="G33" s="1">
-        <v>-0.87</v>
+        <v>-0.93</v>
       </c>
       <c r="H33" s="1">
-        <v>-0.89</v>
+        <v>-0.93</v>
       </c>
       <c r="I33" s="1">
-        <v>-0.9</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="J33" s="1">
-        <v>-0.91</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="K33" s="1">
-        <v>-0.92</v>
+        <v>-0.95</v>
       </c>
       <c r="L33" s="1">
-        <v>-0.92</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="3.75" customHeight="1">
@@ -1187,37 +1187,37 @@
         <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>-0.24</v>
+        <v>-0.2</v>
       </c>
       <c r="C35" s="1">
-        <v>-0.27</v>
+        <v>-0.19</v>
       </c>
       <c r="D35" s="1">
-        <v>-0.27</v>
+        <v>-0.11</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.23</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>-0.16</v>
+        <v>0.68</v>
       </c>
       <c r="G35" s="1">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="H35" s="1">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="I35" s="1">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J35" s="1">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K35" s="1">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L35" s="1">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1230,28 +1230,28 @@
         <v>17</v>
       </c>
       <c r="B38" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C38" s="1">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="D38" s="1">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="E38" s="1">
-        <v>0.07000000000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="F38" s="1">
-        <v>0.04</v>
+        <v>-0.5</v>
       </c>
       <c r="G38" s="1">
-        <v>-0.48</v>
+        <v>-0.5</v>
       </c>
       <c r="H38" s="1">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="I38" s="1">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="J38" s="1">
         <v>-0.5</v>
@@ -1260,7 +1260,7 @@
         <v>-0.5</v>
       </c>
       <c r="L38" s="1">
-        <v>-0.5</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1268,37 +1268,37 @@
         <v>18</v>
       </c>
       <c r="B39" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C39" s="1">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="D39" s="1">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="E39" s="1">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="F39" s="1">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="G39" s="1">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="H39" s="1">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="I39" s="1">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="J39" s="1">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="K39" s="1">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="L39" s="1">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="3.75" customHeight="1">
@@ -1341,37 +1341,37 @@
         <v>19</v>
       </c>
       <c r="B41" s="1">
-        <v>-1.13</v>
+        <v>-1.35</v>
       </c>
       <c r="C41" s="1">
-        <v>-1.15</v>
+        <v>-1.34</v>
       </c>
       <c r="D41" s="1">
-        <v>-1.14</v>
+        <v>-1.36</v>
       </c>
       <c r="E41" s="1">
-        <v>-1.15</v>
+        <v>-1.39</v>
       </c>
       <c r="F41" s="1">
-        <v>-1.18</v>
+        <v>-1.95</v>
       </c>
       <c r="G41" s="1">
-        <v>-1.78</v>
+        <v>-1.94</v>
       </c>
       <c r="H41" s="1">
-        <v>-1.79</v>
+        <v>-1.95</v>
       </c>
       <c r="I41" s="1">
-        <v>-1.8</v>
+        <v>-1.95</v>
       </c>
       <c r="J41" s="1">
-        <v>-1.82</v>
+        <v>-1.96</v>
       </c>
       <c r="K41" s="1">
-        <v>-1.82</v>
+        <v>-1.96</v>
       </c>
       <c r="L41" s="1">
-        <v>-1.83</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="43" spans="1:12">

--- a/captax/data/outputs/Current-Law/uniformity/supplemental_table_tax_wedges_Current-Law_uniformity.xlsx
+++ b/captax/data/outputs/Current-Law/uniformity/supplemental_table_tax_wedges_Current-Law_uniformity.xlsx
@@ -521,37 +521,37 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C9" s="5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D9" s="5">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E9" s="5">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="F9" s="5">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G9" s="5">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="H9" s="5">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="I9" s="5">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="J9" s="5">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="K9" s="5">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="L9" s="5">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -573,37 +573,37 @@
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="C11" s="1">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="D11" s="1">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="E11" s="1">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="F11" s="1">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="G11" s="1">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H11" s="1">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="I11" s="1">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="J11" s="1">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="K11" s="1">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="L11" s="1">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -616,37 +616,37 @@
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="C14" s="1">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="D14" s="1">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="E14" s="1">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="F14" s="1">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="G14" s="1">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H14" s="1">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="I14" s="1">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J14" s="1">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="K14" s="1">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="L14" s="1">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -654,37 +654,37 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="C15" s="1">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="D15" s="1">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="E15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="I15" s="1">
         <v>0.62</v>
       </c>
-      <c r="F15" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.68</v>
-      </c>
       <c r="J15" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="K15" s="1">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="L15" s="1">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="3.75" customHeight="1">
@@ -730,34 +730,34 @@
         <v>0.67</v>
       </c>
       <c r="C17" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="D17" s="1">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E17" s="1">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="F17" s="1">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L17" s="1">
         <v>0.89</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.87</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -770,34 +770,34 @@
         <v>9</v>
       </c>
       <c r="B20" s="1">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="C20" s="1">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="D20" s="1">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="E20" s="1">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="F20" s="1">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="G20" s="1">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H20" s="1">
         <v>1.3</v>
       </c>
       <c r="I20" s="1">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J20" s="1">
         <v>1.31</v>
       </c>
       <c r="K20" s="1">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="L20" s="1">
         <v>1.32</v>
@@ -808,37 +808,37 @@
         <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="D21" s="1">
         <v>0.89</v>
       </c>
       <c r="E21" s="1">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="F21" s="1">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G21" s="1">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="H21" s="1">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="I21" s="1">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="J21" s="1">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="K21" s="1">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="L21" s="1">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="3.75" customHeight="1">
@@ -881,37 +881,37 @@
         <v>11</v>
       </c>
       <c r="B23" s="1">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="C23" s="1">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="D23" s="1">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="E23" s="1">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="F23" s="1">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="G23" s="1">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="H23" s="1">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I23" s="1">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="J23" s="1">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="K23" s="1">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="L23" s="1">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -919,37 +919,37 @@
         <v>12</v>
       </c>
       <c r="B25" s="1">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="C25" s="1">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="D25" s="1">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="E25" s="1">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F25" s="1">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G25" s="1">
         <v>0.66</v>
       </c>
       <c r="H25" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I25" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="J25" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="K25" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="L25" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -957,37 +957,37 @@
         <v>13</v>
       </c>
       <c r="B26" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D26" s="1">
         <v>0.06</v>
       </c>
-      <c r="C26" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.04</v>
-      </c>
       <c r="E26" s="1">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F26" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G26" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H26" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I26" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="J26" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="K26" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L26" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -998,34 +998,34 @@
         <v>0.05</v>
       </c>
       <c r="C28" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02</v>
+        <v>-0.5</v>
       </c>
       <c r="F28" s="1">
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="G28" s="1">
         <v>-0.5</v>
       </c>
       <c r="H28" s="1">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="I28" s="1">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="J28" s="1">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="K28" s="1">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="L28" s="1">
-        <v>-0.57</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B29" s="1">
-        <v>-0.93</v>
+        <v>-1</v>
       </c>
       <c r="C29" s="1">
-        <v>-0.97</v>
+        <v>-1.07</v>
       </c>
       <c r="D29" s="1">
-        <v>-1.05</v>
+        <v>-1.13</v>
       </c>
       <c r="E29" s="1">
-        <v>-1.13</v>
+        <v>-1.71</v>
       </c>
       <c r="F29" s="1">
-        <v>-1.72</v>
+        <v>-1.78</v>
       </c>
       <c r="G29" s="1">
         <v>-1.78</v>
       </c>
       <c r="H29" s="1">
-        <v>-1.78</v>
+        <v>-1.73</v>
       </c>
       <c r="I29" s="1">
-        <v>-1.78</v>
+        <v>-1.73</v>
       </c>
       <c r="J29" s="1">
-        <v>-1.79</v>
+        <v>-1.73</v>
       </c>
       <c r="K29" s="1">
-        <v>-1.79</v>
+        <v>-1.75</v>
       </c>
       <c r="L29" s="1">
-        <v>-1.87</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1085,28 +1085,28 @@
         <v>-0.02</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.02</v>
+        <v>-0.25</v>
       </c>
       <c r="F32" s="1">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="G32" s="1">
         <v>-0.25</v>
       </c>
       <c r="H32" s="1">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="I32" s="1">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="J32" s="1">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="K32" s="1">
         <v>-0.25</v>
       </c>
       <c r="L32" s="1">
-        <v>-0.32</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1114,37 +1114,37 @@
         <v>6</v>
       </c>
       <c r="B33" s="1">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="C33" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="D33" s="1">
-        <v>0.09</v>
+        <v>-0.01</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.02</v>
+        <v>-0.93</v>
       </c>
       <c r="F33" s="1">
-        <v>-0.93</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G33" s="1">
-        <v>-0.93</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="H33" s="1">
-        <v>-0.93</v>
+        <v>-0.91</v>
       </c>
       <c r="I33" s="1">
-        <v>-0.9399999999999999</v>
+        <v>-0.91</v>
       </c>
       <c r="J33" s="1">
-        <v>-0.9399999999999999</v>
+        <v>-0.91</v>
       </c>
       <c r="K33" s="1">
-        <v>-0.95</v>
+        <v>-0.92</v>
       </c>
       <c r="L33" s="1">
-        <v>-1.02</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="3.75" customHeight="1">
@@ -1187,37 +1187,37 @@
         <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="C35" s="1">
-        <v>-0.19</v>
+        <v>-0.09</v>
       </c>
       <c r="D35" s="1">
-        <v>-0.11</v>
+        <v>-0.01</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="F35" s="1">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G35" s="1">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H35" s="1">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="I35" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="J35" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="K35" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="L35" s="1">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1233,34 +1233,34 @@
         <v>0.05</v>
       </c>
       <c r="C38" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D38" s="1">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.02</v>
+        <v>-0.5</v>
       </c>
       <c r="F38" s="1">
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="G38" s="1">
         <v>-0.5</v>
       </c>
       <c r="H38" s="1">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="I38" s="1">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="J38" s="1">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="K38" s="1">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="L38" s="1">
-        <v>-0.57</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1268,37 +1268,37 @@
         <v>18</v>
       </c>
       <c r="B39" s="1">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="C39" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="D39" s="1">
         <v>1.39</v>
       </c>
-      <c r="D39" s="1">
-        <v>1.38</v>
-      </c>
       <c r="E39" s="1">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="F39" s="1">
         <v>1.45</v>
       </c>
       <c r="G39" s="1">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H39" s="1">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="I39" s="1">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="J39" s="1">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="K39" s="1">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="L39" s="1">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="3.75" customHeight="1">
@@ -1341,37 +1341,37 @@
         <v>19</v>
       </c>
       <c r="B41" s="1">
-        <v>-1.35</v>
+        <v>-1.37</v>
       </c>
       <c r="C41" s="1">
-        <v>-1.34</v>
+        <v>-1.39</v>
       </c>
       <c r="D41" s="1">
-        <v>-1.36</v>
+        <v>-1.4</v>
       </c>
       <c r="E41" s="1">
-        <v>-1.39</v>
+        <v>-1.95</v>
       </c>
       <c r="F41" s="1">
         <v>-1.95</v>
       </c>
       <c r="G41" s="1">
-        <v>-1.94</v>
+        <v>-1.95</v>
       </c>
       <c r="H41" s="1">
-        <v>-1.95</v>
+        <v>-1.9</v>
       </c>
       <c r="I41" s="1">
-        <v>-1.95</v>
+        <v>-1.9</v>
       </c>
       <c r="J41" s="1">
-        <v>-1.96</v>
+        <v>-1.9</v>
       </c>
       <c r="K41" s="1">
-        <v>-1.96</v>
+        <v>-1.92</v>
       </c>
       <c r="L41" s="1">
-        <v>-2.04</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="43" spans="1:12">

--- a/captax/data/outputs/Current-Law/uniformity/supplemental_table_tax_wedges_Current-Law_uniformity.xlsx
+++ b/captax/data/outputs/Current-Law/uniformity/supplemental_table_tax_wedges_Current-Law_uniformity.xlsx
@@ -521,37 +521,37 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C9" s="5">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D9" s="5">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E9" s="5">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="F9" s="5">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="G9" s="5">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="H9" s="5">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="I9" s="5">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="J9" s="5">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="K9" s="5">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="L9" s="5">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -573,37 +573,37 @@
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="C11" s="1">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="D11" s="1">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="E11" s="1">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="F11" s="1">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="G11" s="1">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="H11" s="1">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="I11" s="1">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="J11" s="1">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="K11" s="1">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="L11" s="1">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -616,37 +616,37 @@
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="C14" s="1">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="D14" s="1">
-        <v>1.34</v>
+        <v>1.63</v>
       </c>
       <c r="E14" s="1">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="F14" s="1">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="G14" s="1">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="H14" s="1">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="I14" s="1">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="J14" s="1">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="K14" s="1">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="L14" s="1">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -660,31 +660,31 @@
         <v>0.63</v>
       </c>
       <c r="D15" s="1">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="E15" s="1">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="F15" s="1">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="G15" s="1">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>0.61</v>
+        <v>0.7</v>
       </c>
       <c r="I15" s="1">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="J15" s="1">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="K15" s="1">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="L15" s="1">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="3.75" customHeight="1">
@@ -727,37 +727,37 @@
         <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="C17" s="1">
-        <v>0.68</v>
+        <v>0.82</v>
       </c>
       <c r="D17" s="1">
-        <v>0.72</v>
+        <v>0.99</v>
       </c>
       <c r="E17" s="1">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F17" s="1">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G17" s="1">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="H17" s="1">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="I17" s="1">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="J17" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -770,37 +770,37 @@
         <v>9</v>
       </c>
       <c r="B20" s="1">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="C20" s="1">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="D20" s="1">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="E20" s="1">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="F20" s="1">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="G20" s="1">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="H20" s="1">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="I20" s="1">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="J20" s="1">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="K20" s="1">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="L20" s="1">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -808,37 +808,37 @@
         <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="C21" s="1">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="D21" s="1">
-        <v>0.89</v>
+        <v>1.21</v>
       </c>
       <c r="E21" s="1">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="F21" s="1">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="G21" s="1">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="H21" s="1">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="I21" s="1">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="J21" s="1">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="K21" s="1">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="L21" s="1">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="3.75" customHeight="1">
@@ -881,37 +881,37 @@
         <v>11</v>
       </c>
       <c r="B23" s="1">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="C23" s="1">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="D23" s="1">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="E23" s="1">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F23" s="1">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="G23" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="H23" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I23" s="1">
         <v>0.17</v>
       </c>
       <c r="J23" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K23" s="1">
         <v>0.17</v>
       </c>
       <c r="L23" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -919,37 +919,37 @@
         <v>12</v>
       </c>
       <c r="B25" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="C25" s="1">
         <v>0.8</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E25" s="1">
         <v>0.75</v>
       </c>
-      <c r="D25" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.7</v>
-      </c>
       <c r="F25" s="1">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="G25" s="1">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="H25" s="1">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="I25" s="1">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="J25" s="1">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="K25" s="1">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="L25" s="1">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -957,37 +957,37 @@
         <v>13</v>
       </c>
       <c r="B26" s="1">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="C26" s="1">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D26" s="1">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E26" s="1">
         <v>0.06</v>
       </c>
       <c r="F26" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="G26" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H26" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I26" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J26" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K26" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L26" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B28" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C28" s="1">
-        <v>0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.02</v>
+        <v>-0.46</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.5</v>
+        <v>-0.47</v>
       </c>
       <c r="F28" s="1">
-        <v>-0.51</v>
+        <v>-0.47</v>
       </c>
       <c r="G28" s="1">
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="H28" s="1">
-        <v>-0.49</v>
+        <v>-0.45</v>
       </c>
       <c r="I28" s="1">
-        <v>-0.49</v>
+        <v>-0.45</v>
       </c>
       <c r="J28" s="1">
-        <v>-0.49</v>
+        <v>-0.45</v>
       </c>
       <c r="K28" s="1">
-        <v>-0.49</v>
+        <v>-0.45</v>
       </c>
       <c r="L28" s="1">
-        <v>-0.49</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B29" s="1">
-        <v>-1</v>
+        <v>-1.13</v>
       </c>
       <c r="C29" s="1">
-        <v>-1.07</v>
+        <v>-1.24</v>
       </c>
       <c r="D29" s="1">
-        <v>-1.13</v>
+        <v>-1.78</v>
       </c>
       <c r="E29" s="1">
-        <v>-1.71</v>
+        <v>-1.86</v>
       </c>
       <c r="F29" s="1">
-        <v>-1.78</v>
+        <v>-1.86</v>
       </c>
       <c r="G29" s="1">
-        <v>-1.78</v>
+        <v>-1.81</v>
       </c>
       <c r="H29" s="1">
-        <v>-1.73</v>
+        <v>-1.82</v>
       </c>
       <c r="I29" s="1">
-        <v>-1.73</v>
+        <v>-1.83</v>
       </c>
       <c r="J29" s="1">
-        <v>-1.73</v>
+        <v>-1.83</v>
       </c>
       <c r="K29" s="1">
-        <v>-1.75</v>
+        <v>-1.83</v>
       </c>
       <c r="L29" s="1">
-        <v>-1.75</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1076,37 +1076,37 @@
         <v>5</v>
       </c>
       <c r="B32" s="1">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="C32" s="1">
         <v>-0.02</v>
       </c>
       <c r="D32" s="1">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.25</v>
+        <v>-0.2</v>
       </c>
       <c r="F32" s="1">
-        <v>-0.26</v>
+        <v>-0.2</v>
       </c>
       <c r="G32" s="1">
-        <v>-0.25</v>
+        <v>-0.19</v>
       </c>
       <c r="H32" s="1">
-        <v>-0.24</v>
+        <v>-0.19</v>
       </c>
       <c r="I32" s="1">
-        <v>-0.24</v>
+        <v>-0.19</v>
       </c>
       <c r="J32" s="1">
-        <v>-0.24</v>
+        <v>-0.19</v>
       </c>
       <c r="K32" s="1">
-        <v>-0.25</v>
+        <v>-0.19</v>
       </c>
       <c r="L32" s="1">
-        <v>-0.24</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1114,37 +1114,37 @@
         <v>6</v>
       </c>
       <c r="B33" s="1">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="C33" s="1">
-        <v>0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="D33" s="1">
-        <v>-0.01</v>
+        <v>-0.92</v>
       </c>
       <c r="E33" s="1">
         <v>-0.93</v>
       </c>
       <c r="F33" s="1">
-        <v>-0.9399999999999999</v>
+        <v>-0.93</v>
       </c>
       <c r="G33" s="1">
-        <v>-0.9399999999999999</v>
+        <v>-0.9</v>
       </c>
       <c r="H33" s="1">
-        <v>-0.91</v>
+        <v>-0.9</v>
       </c>
       <c r="I33" s="1">
-        <v>-0.91</v>
+        <v>-0.9</v>
       </c>
       <c r="J33" s="1">
         <v>-0.91</v>
       </c>
       <c r="K33" s="1">
-        <v>-0.92</v>
+        <v>-0.91</v>
       </c>
       <c r="L33" s="1">
-        <v>-0.92</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="3.75" customHeight="1">
@@ -1187,37 +1187,37 @@
         <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>-0.18</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C35" s="1">
-        <v>-0.09</v>
+        <v>0.08</v>
       </c>
       <c r="D35" s="1">
-        <v>-0.01</v>
+        <v>0.72</v>
       </c>
       <c r="E35" s="1">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="F35" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="G35" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H35" s="1">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="I35" s="1">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="J35" s="1">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="K35" s="1">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="L35" s="1">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1230,37 +1230,37 @@
         <v>17</v>
       </c>
       <c r="B38" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C38" s="1">
-        <v>0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.02</v>
+        <v>-0.46</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.5</v>
+        <v>-0.47</v>
       </c>
       <c r="F38" s="1">
-        <v>-0.51</v>
+        <v>-0.47</v>
       </c>
       <c r="G38" s="1">
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="H38" s="1">
-        <v>-0.49</v>
+        <v>-0.45</v>
       </c>
       <c r="I38" s="1">
-        <v>-0.49</v>
+        <v>-0.45</v>
       </c>
       <c r="J38" s="1">
-        <v>-0.49</v>
+        <v>-0.45</v>
       </c>
       <c r="K38" s="1">
-        <v>-0.49</v>
+        <v>-0.45</v>
       </c>
       <c r="L38" s="1">
-        <v>-0.49</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1268,37 +1268,37 @@
         <v>18</v>
       </c>
       <c r="B39" s="1">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="C39" s="1">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="D39" s="1">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="E39" s="1">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="F39" s="1">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="G39" s="1">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="H39" s="1">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="I39" s="1">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="J39" s="1">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="K39" s="1">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="L39" s="1">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="3.75" customHeight="1">
@@ -1341,37 +1341,37 @@
         <v>19</v>
       </c>
       <c r="B41" s="1">
-        <v>-1.37</v>
+        <v>-1.48</v>
       </c>
       <c r="C41" s="1">
-        <v>-1.39</v>
+        <v>-1.53</v>
       </c>
       <c r="D41" s="1">
-        <v>-1.4</v>
+        <v>-2.03</v>
       </c>
       <c r="E41" s="1">
-        <v>-1.95</v>
+        <v>-2.05</v>
       </c>
       <c r="F41" s="1">
-        <v>-1.95</v>
+        <v>-2.05</v>
       </c>
       <c r="G41" s="1">
-        <v>-1.95</v>
+        <v>-1.99</v>
       </c>
       <c r="H41" s="1">
-        <v>-1.9</v>
+        <v>-1.99</v>
       </c>
       <c r="I41" s="1">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="J41" s="1">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="K41" s="1">
-        <v>-1.92</v>
+        <v>-2</v>
       </c>
       <c r="L41" s="1">
-        <v>-1.92</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="43" spans="1:12">

--- a/captax/data/outputs/Current-Law/uniformity/supplemental_table_tax_wedges_Current-Law_uniformity.xlsx
+++ b/captax/data/outputs/Current-Law/uniformity/supplemental_table_tax_wedges_Current-Law_uniformity.xlsx
@@ -573,37 +573,37 @@
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="C11" s="1">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="D11" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="E11" s="1">
         <v>1.32</v>
       </c>
-      <c r="E11" s="1">
-        <v>1.39</v>
-      </c>
       <c r="F11" s="1">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="G11" s="1">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="H11" s="1">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="I11" s="1">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="J11" s="1">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="K11" s="1">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="L11" s="1">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -616,37 +616,37 @@
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="C14" s="1">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="D14" s="1">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E14" s="1">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="F14" s="1">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="G14" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="J14" s="1">
         <v>1.68</v>
       </c>
-      <c r="H14" s="1">
-        <v>1.69</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1.69</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.7</v>
-      </c>
       <c r="K14" s="1">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="L14" s="1">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -654,37 +654,37 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="C15" s="1">
-        <v>0.63</v>
+        <v>0.55</v>
       </c>
       <c r="D15" s="1">
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
       <c r="E15" s="1">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="F15" s="1">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="G15" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H15" s="1">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="I15" s="1">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="J15" s="1">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="K15" s="1">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="L15" s="1">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="3.75" customHeight="1">
@@ -727,37 +727,37 @@
         <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="C17" s="1">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="D17" s="1">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="E17" s="1">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="F17" s="1">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="G17" s="1">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="H17" s="1">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="I17" s="1">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -770,37 +770,37 @@
         <v>9</v>
       </c>
       <c r="B20" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="C20" s="1">
         <v>1.27</v>
       </c>
-      <c r="C20" s="1">
-        <v>1.31</v>
-      </c>
       <c r="D20" s="1">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="E20" s="1">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="F20" s="1">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="G20" s="1">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H20" s="1">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="I20" s="1">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="J20" s="1">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="K20" s="1">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="L20" s="1">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -808,37 +808,37 @@
         <v>10</v>
       </c>
       <c r="B21" s="1">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="C21" s="1">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="D21" s="1">
+        <v>1.13</v>
+      </c>
+      <c r="E21" s="1">
         <v>1.21</v>
       </c>
-      <c r="E21" s="1">
-        <v>1.31</v>
-      </c>
       <c r="F21" s="1">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="G21" s="1">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="H21" s="1">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="I21" s="1">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="J21" s="1">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="K21" s="1">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="L21" s="1">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="3.75" customHeight="1">
@@ -887,28 +887,28 @@
         <v>0.37</v>
       </c>
       <c r="D23" s="1">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="E23" s="1">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="F23" s="1">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="G23" s="1">
         <v>0.17</v>
       </c>
       <c r="H23" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I23" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="J23" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="K23" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="L23" s="1">
         <v>0.18</v>
@@ -919,22 +919,22 @@
         <v>12</v>
       </c>
       <c r="B25" s="1">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C25" s="1">
         <v>0.8</v>
       </c>
       <c r="D25" s="1">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E25" s="1">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="F25" s="1">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="G25" s="1">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="H25" s="1">
         <v>0.73</v>
@@ -963,7 +963,7 @@
         <v>0.1</v>
       </c>
       <c r="D26" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E26" s="1">
         <v>0.06</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B28" s="1">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="C28" s="1">
-        <v>-0.05</v>
+        <v>0.09</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.46</v>
+        <v>-0.42</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.47</v>
+        <v>-0.43</v>
       </c>
       <c r="F28" s="1">
-        <v>-0.47</v>
+        <v>-0.44</v>
       </c>
       <c r="G28" s="1">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="H28" s="1">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="I28" s="1">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="J28" s="1">
         <v>-0.45</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B29" s="1">
-        <v>-1.13</v>
+        <v>-0.99</v>
       </c>
       <c r="C29" s="1">
-        <v>-1.24</v>
+        <v>-1.06</v>
       </c>
       <c r="D29" s="1">
+        <v>-1.68</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-1.75</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-1.76</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-1.76</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-1.77</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-1.77</v>
+      </c>
+      <c r="J29" s="1">
         <v>-1.78</v>
       </c>
-      <c r="E29" s="1">
-        <v>-1.86</v>
-      </c>
-      <c r="F29" s="1">
-        <v>-1.86</v>
-      </c>
-      <c r="G29" s="1">
-        <v>-1.81</v>
-      </c>
-      <c r="H29" s="1">
-        <v>-1.82</v>
-      </c>
-      <c r="I29" s="1">
-        <v>-1.83</v>
-      </c>
-      <c r="J29" s="1">
-        <v>-1.83</v>
-      </c>
       <c r="K29" s="1">
-        <v>-1.83</v>
+        <v>-1.78</v>
       </c>
       <c r="L29" s="1">
-        <v>-1.83</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1079,16 +1079,16 @@
         <v>-0.01</v>
       </c>
       <c r="C32" s="1">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="D32" s="1">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="F32" s="1">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="G32" s="1">
         <v>-0.19</v>
@@ -1114,37 +1114,37 @@
         <v>6</v>
       </c>
       <c r="B33" s="1">
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
       <c r="C33" s="1">
-        <v>-0.1</v>
+        <v>0.27</v>
       </c>
       <c r="D33" s="1">
-        <v>-0.92</v>
+        <v>-0.83</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.93</v>
+        <v>-0.86</v>
       </c>
       <c r="F33" s="1">
-        <v>-0.93</v>
+        <v>-0.87</v>
       </c>
       <c r="G33" s="1">
-        <v>-0.9</v>
+        <v>-0.88</v>
       </c>
       <c r="H33" s="1">
-        <v>-0.9</v>
+        <v>-0.88</v>
       </c>
       <c r="I33" s="1">
-        <v>-0.9</v>
+        <v>-0.88</v>
       </c>
       <c r="J33" s="1">
-        <v>-0.91</v>
+        <v>-0.89</v>
       </c>
       <c r="K33" s="1">
-        <v>-0.91</v>
+        <v>-0.89</v>
       </c>
       <c r="L33" s="1">
-        <v>-0.91</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="3.75" customHeight="1">
@@ -1187,37 +1187,37 @@
         <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>-0.07000000000000001</v>
+        <v>-0.35</v>
       </c>
       <c r="C35" s="1">
-        <v>0.08</v>
+        <v>-0.28</v>
       </c>
       <c r="D35" s="1">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E35" s="1">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="F35" s="1">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="G35" s="1">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J35" s="1">
         <v>0.7</v>
       </c>
-      <c r="H35" s="1">
+      <c r="K35" s="1">
         <v>0.7</v>
       </c>
-      <c r="I35" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.72</v>
-      </c>
       <c r="L35" s="1">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1230,28 +1230,28 @@
         <v>17</v>
       </c>
       <c r="B38" s="1">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="C38" s="1">
-        <v>-0.05</v>
+        <v>0.09</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.46</v>
+        <v>-0.42</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.47</v>
+        <v>-0.43</v>
       </c>
       <c r="F38" s="1">
-        <v>-0.47</v>
+        <v>-0.44</v>
       </c>
       <c r="G38" s="1">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="H38" s="1">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="I38" s="1">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="J38" s="1">
         <v>-0.45</v>
@@ -1268,37 +1268,37 @@
         <v>18</v>
       </c>
       <c r="B39" s="1">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="C39" s="1">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="D39" s="1">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="E39" s="1">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="F39" s="1">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="G39" s="1">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="H39" s="1">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="I39" s="1">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J39" s="1">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="K39" s="1">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="L39" s="1">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="3.75" customHeight="1">
@@ -1341,37 +1341,37 @@
         <v>19</v>
       </c>
       <c r="B41" s="1">
-        <v>-1.48</v>
+        <v>-1.33</v>
       </c>
       <c r="C41" s="1">
-        <v>-1.53</v>
+        <v>-1.35</v>
       </c>
       <c r="D41" s="1">
-        <v>-2.03</v>
+        <v>-1.93</v>
       </c>
       <c r="E41" s="1">
-        <v>-2.05</v>
+        <v>-1.94</v>
       </c>
       <c r="F41" s="1">
-        <v>-2.05</v>
+        <v>-1.94</v>
       </c>
       <c r="G41" s="1">
-        <v>-1.99</v>
+        <v>-1.94</v>
       </c>
       <c r="H41" s="1">
-        <v>-1.99</v>
+        <v>-1.94</v>
       </c>
       <c r="I41" s="1">
-        <v>-2</v>
+        <v>-1.94</v>
       </c>
       <c r="J41" s="1">
-        <v>-2</v>
+        <v>-1.95</v>
       </c>
       <c r="K41" s="1">
-        <v>-2</v>
+        <v>-1.95</v>
       </c>
       <c r="L41" s="1">
-        <v>-2</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="43" spans="1:12">
